--- a/Document/시스템 기획서/DreamCatcher_전투스텟_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_전투스텟_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t xml:space="preserve">신규 프로젝트_전투 문서 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -285,6 +285,10 @@
   </si>
   <si>
     <t xml:space="preserve">최종 피해 계산 크리티컬 버전 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 공식</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -926,10 +930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H65"/>
+  <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -940,47 +944,37 @@
     <col min="4" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+    <row r="2" spans="2:8" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="8" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -989,13 +983,13 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1004,201 +998,216 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>12</v>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
+    <row r="20" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>10</v>
+      <c r="B25" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="6" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="6" t="s">
-        <v>22</v>
+      <c r="B36" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="6" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="6"/>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="6" t="s">
-        <v>49</v>
+      <c r="B49" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="6" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="6" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="6" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="6" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1210,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>

--- a/Document/시스템 기획서/DreamCatcher_전투스텟_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_전투스텟_강일구.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
